--- a/Load_cases_combi.xlsx
+++ b/Load_cases_combi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vancekang/Documents/GitHub/CSI-SAP2000-Python-OAPI-Tunnel-design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A567B4-8D60-A241-A1D5-88F9D6264339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96480AE-957A-224D-9706-0FE43FADE9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="2300" windowWidth="22660" windowHeight="12820" xr2:uid="{8066D04B-89ED-4BB9-AC51-8CC6FDC0DC9F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{8066D04B-89ED-4BB9-AC51-8CC6FDC0DC9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Load summary(updated)" sheetId="2" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8016" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8017" uniqueCount="186">
   <si>
     <t>Column1</t>
   </si>
@@ -608,9 +608,6 @@
     <t>LL</t>
   </si>
   <si>
-    <t>Load_Combination</t>
-  </si>
-  <si>
     <t xml:space="preserve">Eff. Vertical Soil Pressure Roof, 4.5m excavation above Roof Slab </t>
   </si>
   <si>
@@ -628,12 +625,18 @@
   <si>
     <t>EXCAV GL -4.5,WL GL, no SDL, SLS</t>
   </si>
+  <si>
+    <t>Load cases names</t>
+  </si>
+  <si>
+    <t>Load combinations</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,8 +676,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -687,8 +698,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -805,11 +822,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -865,6 +891,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1827,14 +1859,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>513657</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>94437</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>148865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>536860</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>94187</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>148615</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -2314,7 +2346,7 @@
     <sortCondition ref="B2:B42"/>
   </sortState>
   <tableColumns count="26">
-    <tableColumn id="22" xr3:uid="{EDA63189-3B47-447D-8BE5-FC6C805FF5E6}" name="Load_Combination" dataDxfId="85"/>
+    <tableColumn id="22" xr3:uid="{EDA63189-3B47-447D-8BE5-FC6C805FF5E6}" name="Load cases names" dataDxfId="85"/>
     <tableColumn id="1" xr3:uid="{BB2B169A-365A-44C9-849C-8C9736486128}" name="load_case" dataDxfId="84"/>
     <tableColumn id="2" xr3:uid="{6D523084-C6FE-4491-8A12-BFD804A5F521}" name="101" dataDxfId="83"/>
     <tableColumn id="3" xr3:uid="{253461FC-C694-4A21-83B5-1F515D5F0ACC}" name="201" dataDxfId="82"/>
@@ -2783,11 +2815,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:Z44"/>
+  <dimension ref="A1:Z44"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A7" sqref="A7"/>
+      <selection pane="topRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2799,9 +2831,15 @@
     <col min="25" max="25" width="12" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="25"/>
+    </row>
     <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -2867,10 +2905,10 @@
         <v>21</v>
       </c>
       <c r="W2" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="X2" s="14" t="s">
         <v>181</v>
-      </c>
-      <c r="X2" s="14" t="s">
-        <v>182</v>
       </c>
       <c r="Y2" s="3" t="s">
         <v>22</v>
@@ -6081,7 +6119,7 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B43" s="13">
         <v>17.100000000000001</v>
@@ -6161,7 +6199,7 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B44" s="13">
         <v>31.1</v>
@@ -6240,6 +6278,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B38:B39">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
@@ -9461,10 +9502,10 @@
     </row>
     <row r="23" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -9512,15 +9553,15 @@
       <c r="AT23" s="1"/>
       <c r="AU23" s="1"/>
       <c r="AV23" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -9568,7 +9609,7 @@
       <c r="AT24" s="1"/>
       <c r="AU24" s="1"/>
       <c r="AV24" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:48" x14ac:dyDescent="0.2">
@@ -45173,7 +45214,7 @@
     </row>
     <row r="884" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A884" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B884" t="s">
         <v>171</v>
@@ -45213,7 +45254,7 @@
     </row>
     <row r="885" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B885" t="s">
         <v>171</v>
@@ -45253,7 +45294,7 @@
     </row>
     <row r="886" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B886" t="s">
         <v>171</v>
@@ -45293,7 +45334,7 @@
     </row>
     <row r="887" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B887" t="s">
         <v>171</v>
@@ -45334,7 +45375,7 @@
     </row>
     <row r="888" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B888" t="s">
         <v>171</v>
@@ -45375,7 +45416,7 @@
     </row>
     <row r="889" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B889" t="s">
         <v>171</v>
@@ -45415,7 +45456,7 @@
     </row>
     <row r="890" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B890" t="s">
         <v>171</v>
@@ -45455,7 +45496,7 @@
     </row>
     <row r="891" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B891" t="s">
         <v>171</v>
@@ -45495,7 +45536,7 @@
     </row>
     <row r="892" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A892" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B892" t="s">
         <v>171</v>
@@ -45535,7 +45576,7 @@
     </row>
     <row r="893" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B893" t="s">
         <v>171</v>
@@ -45575,7 +45616,7 @@
     </row>
     <row r="894" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A894" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B894" t="s">
         <v>171</v>
@@ -45615,7 +45656,7 @@
     </row>
     <row r="895" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A895" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B895" t="s">
         <v>171</v>
@@ -45655,7 +45696,7 @@
     </row>
     <row r="896" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B896" t="s">
         <v>171</v>
@@ -45695,7 +45736,7 @@
     </row>
     <row r="897" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B897" t="s">
         <v>171</v>
@@ -45736,7 +45777,7 @@
     </row>
     <row r="898" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A898" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B898" t="s">
         <v>171</v>
@@ -45777,7 +45818,7 @@
     </row>
     <row r="899" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B899" t="s">
         <v>171</v>
@@ -45817,7 +45858,7 @@
     </row>
     <row r="900" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A900" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B900" t="s">
         <v>171</v>
@@ -45858,7 +45899,7 @@
     </row>
     <row r="901" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B901" t="s">
         <v>171</v>
@@ -45899,7 +45940,7 @@
     </row>
     <row r="902" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B902" t="s">
         <v>171</v>
@@ -45939,7 +45980,7 @@
     </row>
     <row r="903" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B903" t="s">
         <v>171</v>
@@ -45979,7 +46020,7 @@
     </row>
     <row r="904" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A904" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B904" t="s">
         <v>171</v>
@@ -46019,7 +46060,7 @@
     </row>
     <row r="905" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B905" t="s">
         <v>171</v>
@@ -46059,7 +46100,7 @@
     </row>
     <row r="906" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A906" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B906" t="s">
         <v>171</v>
@@ -46099,7 +46140,7 @@
     </row>
     <row r="907" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A907" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B907" t="s">
         <v>171</v>
@@ -46139,7 +46180,7 @@
     </row>
     <row r="908" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B908" t="s">
         <v>171</v>
@@ -46179,7 +46220,7 @@
     </row>
     <row r="909" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B909" t="s">
         <v>171</v>
@@ -46219,7 +46260,7 @@
     </row>
     <row r="910" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B910" t="s">
         <v>171</v>
@@ -46259,7 +46300,7 @@
     </row>
     <row r="911" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B911" t="s">
         <v>171</v>
@@ -46299,7 +46340,7 @@
     </row>
     <row r="912" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B912" t="s">
         <v>171</v>
@@ -46339,7 +46380,7 @@
     </row>
     <row r="913" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A913" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B913" t="s">
         <v>171</v>
@@ -46379,7 +46420,7 @@
     </row>
     <row r="914" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B914" t="s">
         <v>171</v>
@@ -46419,7 +46460,7 @@
     </row>
     <row r="915" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B915" t="s">
         <v>171</v>
@@ -46459,7 +46500,7 @@
     </row>
     <row r="916" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B916" t="s">
         <v>171</v>
@@ -46499,7 +46540,7 @@
     </row>
     <row r="917" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B917" t="s">
         <v>171</v>
@@ -46539,7 +46580,7 @@
     </row>
     <row r="918" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A918" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B918" t="s">
         <v>171</v>
@@ -46579,7 +46620,7 @@
     </row>
     <row r="919" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B919" t="s">
         <v>171</v>
@@ -46619,7 +46660,7 @@
     </row>
     <row r="920" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A920" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B920" t="s">
         <v>171</v>
@@ -46659,7 +46700,7 @@
     </row>
     <row r="921" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B921" t="s">
         <v>171</v>
@@ -46699,7 +46740,7 @@
     </row>
     <row r="922" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B922" t="s">
         <v>171</v>
@@ -46739,7 +46780,7 @@
     </row>
     <row r="923" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B923" t="s">
         <v>171</v>
@@ -46779,7 +46820,7 @@
     </row>
     <row r="924" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A924" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B924" t="s">
         <v>171</v>
@@ -46819,7 +46860,7 @@
     </row>
     <row r="925" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A925" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B925" t="s">
         <v>171</v>
@@ -46859,7 +46900,7 @@
     </row>
     <row r="926" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A926" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B926" t="s">
         <v>171</v>
@@ -46899,7 +46940,7 @@
     </row>
     <row r="927" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B927" t="s">
         <v>171</v>
@@ -46939,7 +46980,7 @@
     </row>
     <row r="928" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B928" t="s">
         <v>171</v>
@@ -46979,7 +47020,7 @@
     </row>
     <row r="929" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B929" t="s">
         <v>171</v>
@@ -47020,7 +47061,7 @@
     </row>
     <row r="930" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B930" t="s">
         <v>171</v>
@@ -47061,7 +47102,7 @@
     </row>
     <row r="931" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B931" t="s">
         <v>171</v>
@@ -47101,7 +47142,7 @@
     </row>
     <row r="932" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B932" t="s">
         <v>171</v>
@@ -47141,7 +47182,7 @@
     </row>
     <row r="933" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B933" t="s">
         <v>171</v>
@@ -47181,7 +47222,7 @@
     </row>
     <row r="934" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B934" t="s">
         <v>171</v>
@@ -47221,7 +47262,7 @@
     </row>
     <row r="935" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B935" t="s">
         <v>171</v>
@@ -47261,7 +47302,7 @@
     </row>
     <row r="936" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B936" t="s">
         <v>171</v>
@@ -47301,7 +47342,7 @@
     </row>
     <row r="937" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B937" t="s">
         <v>171</v>
@@ -47341,7 +47382,7 @@
     </row>
     <row r="938" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B938" t="s">
         <v>171</v>
@@ -47381,7 +47422,7 @@
     </row>
     <row r="939" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A939" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B939" t="s">
         <v>171</v>
@@ -47422,7 +47463,7 @@
     </row>
     <row r="940" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B940" t="s">
         <v>171</v>
@@ -47463,7 +47504,7 @@
     </row>
     <row r="941" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B941" t="s">
         <v>171</v>
@@ -47503,7 +47544,7 @@
     </row>
     <row r="942" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B942" t="s">
         <v>171</v>
@@ -47544,7 +47585,7 @@
     </row>
     <row r="943" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B943" t="s">
         <v>171</v>
@@ -47585,7 +47626,7 @@
     </row>
     <row r="944" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B944" t="s">
         <v>171</v>
@@ -47625,7 +47666,7 @@
     </row>
     <row r="945" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B945" t="s">
         <v>171</v>
@@ -47665,7 +47706,7 @@
     </row>
     <row r="946" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A946" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B946" t="s">
         <v>171</v>
@@ -47705,7 +47746,7 @@
     </row>
     <row r="947" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A947" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B947" t="s">
         <v>171</v>
@@ -47745,7 +47786,7 @@
     </row>
     <row r="948" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B948" t="s">
         <v>171</v>
@@ -47785,7 +47826,7 @@
     </row>
     <row r="949" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A949" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B949" t="s">
         <v>171</v>
@@ -47825,7 +47866,7 @@
     </row>
     <row r="950" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A950" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B950" t="s">
         <v>171</v>
@@ -47865,7 +47906,7 @@
     </row>
     <row r="951" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B951" t="s">
         <v>171</v>
@@ -47905,7 +47946,7 @@
     </row>
     <row r="952" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A952" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B952" t="s">
         <v>171</v>
@@ -47945,7 +47986,7 @@
     </row>
     <row r="953" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B953" t="s">
         <v>171</v>
@@ -47985,7 +48026,7 @@
     </row>
     <row r="954" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B954" t="s">
         <v>171</v>
@@ -48025,7 +48066,7 @@
     </row>
     <row r="955" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B955" t="s">
         <v>171</v>
@@ -48065,7 +48106,7 @@
     </row>
     <row r="956" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B956" t="s">
         <v>171</v>
@@ -48105,7 +48146,7 @@
     </row>
     <row r="957" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A957" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B957" t="s">
         <v>171</v>
@@ -48145,7 +48186,7 @@
     </row>
     <row r="958" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B958" t="s">
         <v>171</v>
@@ -48185,7 +48226,7 @@
     </row>
     <row r="959" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B959" t="s">
         <v>171</v>
@@ -48225,7 +48266,7 @@
     </row>
     <row r="960" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B960" t="s">
         <v>171</v>
@@ -48265,7 +48306,7 @@
     </row>
     <row r="961" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B961" t="s">
         <v>171</v>
@@ -48305,7 +48346,7 @@
     </row>
     <row r="962" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B962" t="s">
         <v>171</v>
@@ -48345,7 +48386,7 @@
     </row>
     <row r="963" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B963" t="s">
         <v>171</v>
@@ -48385,7 +48426,7 @@
     </row>
     <row r="964" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A964" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B964" t="s">
         <v>171</v>
@@ -48425,7 +48466,7 @@
     </row>
     <row r="965" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A965" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B965" t="s">
         <v>171</v>
@@ -48465,7 +48506,7 @@
     </row>
     <row r="966" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A966" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B966" t="s">
         <v>171</v>
@@ -48505,7 +48546,7 @@
     </row>
     <row r="967" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A967" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B967" t="s">
         <v>171</v>
